--- a/Tests/T2 - Trees/Statistics.xlsx
+++ b/Tests/T2 - Trees/Statistics.xlsx
@@ -195,7 +195,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ro-RO"/>
-              <a:t>(bi-modal</a:t>
+              <a:t>(tri-modal</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ro-RO" baseline="0"/>
@@ -349,11 +349,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1719348784"/>
-        <c:axId val="-1719340624"/>
+        <c:axId val="-748443632"/>
+        <c:axId val="-748447984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1719348784"/>
+        <c:axId val="-748443632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +396,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719340624"/>
+        <c:crossAx val="-748447984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -404,7 +404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1719340624"/>
+        <c:axId val="-748447984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +455,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719348784"/>
+        <c:crossAx val="-748443632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -549,11 +549,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ro-RO"/>
-              <a:t>(right-skewed</a:t>
+              <a:t>(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ro-RO" baseline="0"/>
-              <a:t> distribution)</a:t>
+              <a:t>semi-unimodal distribution)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -703,11 +703,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1719340080"/>
-        <c:axId val="-1719348240"/>
+        <c:axId val="-748440912"/>
+        <c:axId val="-748447440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1719340080"/>
+        <c:axId val="-748440912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719348240"/>
+        <c:crossAx val="-748447440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1719348240"/>
+        <c:axId val="-748447440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719340080"/>
+        <c:crossAx val="-748440912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,7 +903,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ro-RO"/>
-              <a:t>(tri-modal distribution)</a:t>
+              <a:t>(multi-modal distribution)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1053,11 +1053,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1719337904"/>
-        <c:axId val="-1719347152"/>
+        <c:axId val="-748446352"/>
+        <c:axId val="-748453424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1719337904"/>
+        <c:axId val="-748446352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,7 +1100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719347152"/>
+        <c:crossAx val="-748453424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1108,7 +1108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1719347152"/>
+        <c:axId val="-748453424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1719337904"/>
+        <c:crossAx val="-748446352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3221,7 +3221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
